--- a/iselUssSyncV2/OutputWSLorientation/20220524_1431_D50L474W30Q26.5U0.44H76.2G2_S3_DATA.xlsx
+++ b/iselUssSyncV2/OutputWSLorientation/20220524_1431_D50L474W30Q26.5U0.44H76.2G2_S3_DATA.xlsx
@@ -344,10 +344,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="N2" s="0">
-        <v>0.023699999999999999</v>
+        <v>0.013550436903969579</v>
       </c>
       <c r="O2" s="0">
-        <v>0.39326930429714535</v>
+        <v>0.22485109258002028</v>
       </c>
       <c r="P2" s="0">
         <v>272.36407666666668</v>
@@ -356,10 +356,10 @@
         <v>2.6718915921000002</v>
       </c>
       <c r="R2" s="0">
-        <v>1.1660718931990901</v>
+        <v>2.0394843402224572</v>
       </c>
       <c r="S2" s="0">
-        <v>0.42925687734610224</v>
+        <v>1.2254360533128028</v>
       </c>
       <c r="T2" s="0">
         <v>0.048587309697652056</v>
@@ -383,16 +383,16 @@
         <v>210000</v>
       </c>
       <c r="AA2" s="0">
-        <v>2.2913609423941521</v>
+        <v>1.3100819356173938</v>
       </c>
       <c r="AB2" s="0">
-        <v>6.2244584376121743</v>
+        <v>2.180359868535692</v>
       </c>
       <c r="AC2" s="0">
-        <v>5.1818787352078406</v>
+        <v>2.9627308373609926</v>
       </c>
       <c r="AD2" s="0">
-        <v>4.8923013294566307</v>
+        <v>2.4461506647283153</v>
       </c>
       <c r="AE2" s="0">
         <v>30</v>
@@ -401,7 +401,7 @@
         <v>33</v>
       </c>
       <c r="AG2" s="0">
-        <v>11.406337172820015</v>
+        <v>5.1430907058966842</v>
       </c>
     </row>
   </sheetData>
